--- a/ex_corr/резерв Tmp/tmpВласов.xlsx
+++ b/ex_corr/резерв Tmp/tmpВласов.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VecheslavSP\Desktop\Python\Ros_accred\ex_corr\tmpXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unitess\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1902" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1009" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="250">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -258,6 +258,66 @@
     <t xml:space="preserve"> С-МА/29-03-2023/238480946</t>
   </si>
   <si>
+    <t xml:space="preserve"> Vulcan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВТЗ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрометры лазерно-искровые эмиссионные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-008360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-008360-2023-910209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70519-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Внутренние работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016447</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> microPHAZIR Rx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Р-ФАРМ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрометры портативные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-008375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-008375-2023-3255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55895-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/16-04-2023/239016443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.04.2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ЭЛАНИК</t>
   </si>
   <si>
@@ -267,9 +327,6 @@
     <t xml:space="preserve"> Принято АРШИНом   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Спектрометры лазерно-искровые эмиссионные</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1000-009080</t>
   </si>
   <si>
@@ -447,9 +504,6 @@
     <t xml:space="preserve"> 50072-12</t>
   </si>
   <si>
-    <t xml:space="preserve"> Внутренние работы</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 24.03.2023</t>
   </si>
   <si>
@@ -534,6 +588,45 @@
     <t xml:space="preserve"> 06.04.2024</t>
   </si>
   <si>
+    <t xml:space="preserve"> Vanta Element S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АЛТЕКО ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы портативные спектрометрические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-014299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-014299-2023-808482</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79991-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X-MET 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТАЙФУН АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-014336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-014336-2023-800953</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60562-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016446</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Niton XL2</t>
   </si>
   <si>
@@ -553,6 +646,96 @@
   </si>
   <si>
     <t xml:space="preserve"> С-МА/30-03-2023/234693660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-015110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-015110-2023-70000123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016442</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-015110-2023-70000124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/16-04-2023/239016441</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АП ВОСХОД АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-016426</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-016426-2023-750566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanta VСR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КРАСНОЯРСКИЙ ЦСМ ФБУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АНПЗ ВНК АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы портативные рентгенофлуоресцентные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-016923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-016923-2023-820558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69112-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016449</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РН-КРАСНОЯРСКНИПИНЕФТЬ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Z200-0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-016935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-016935-2023-Z200-0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КАЛУЖСКИЙ ЦСМ ФБУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ХЕМОФАРМ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-018396</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-018396-2023-3050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239016444</t>
   </si>
   <si>
     <t xml:space="preserve"> BRAVO</t>
@@ -746,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,12 +1109,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1093,11 +1270,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1419,17 +1594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9:AP9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="29.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2043,7 +2212,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44998</v>
+        <v>44992</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -2061,7 +2230,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -2070,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>70000125</v>
+        <v>910209</v>
       </c>
       <c r="L6" t="s">
         <v>43</v>
@@ -2088,10 +2257,10 @@
         <v>43</v>
       </c>
       <c r="P6">
-        <v>575825</v>
+        <v>575015</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s">
         <v>43</v>
@@ -2106,28 +2275,28 @@
         <v>47</v>
       </c>
       <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" t="s">
         <v>84</v>
       </c>
-      <c r="W6" t="s">
-        <v>49</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" t="s">
-        <v>63</v>
-      </c>
       <c r="Z6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AA6">
-        <v>7728264227</v>
+        <v>3435900186</v>
       </c>
       <c r="AB6" t="s">
         <v>43</v>
       </c>
       <c r="AC6">
-        <v>7728264227</v>
+        <v>3435900186</v>
       </c>
       <c r="AD6" t="s">
         <v>43</v>
@@ -2136,25 +2305,25 @@
         <v>64</v>
       </c>
       <c r="AF6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s">
         <v>43</v>
       </c>
       <c r="AH6">
-        <v>575825</v>
+        <v>575015</v>
       </c>
       <c r="AI6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK6" t="s">
         <v>85</v>
       </c>
-      <c r="AK6" t="s">
-        <v>63</v>
-      </c>
       <c r="AL6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AM6" t="s">
         <v>49</v>
@@ -2165,10 +2334,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -2177,10 +2346,10 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -2192,10 +2361,10 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>4576</v>
+        <v>3255</v>
       </c>
       <c r="L7" t="s">
         <v>43</v>
@@ -2204,16 +2373,16 @@
         <v>43</v>
       </c>
       <c r="N7">
-        <v>6550</v>
+        <v>11200</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7">
-        <v>576265</v>
+        <v>575030</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R7" t="s">
         <v>43</v>
@@ -2228,28 +2397,28 @@
         <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W7" t="s">
         <v>49</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AA7">
-        <v>5008000322</v>
+        <v>7726311464</v>
       </c>
       <c r="AB7" t="s">
         <v>43</v>
       </c>
       <c r="AC7">
-        <v>5008000322</v>
+        <v>7726311464</v>
       </c>
       <c r="AD7" t="s">
         <v>43</v>
@@ -2258,25 +2427,25 @@
         <v>64</v>
       </c>
       <c r="AF7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH7">
+        <v>575030</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>95</v>
       </c>
-      <c r="AG7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH7">
-        <v>576265</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>96</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>94</v>
-      </c>
       <c r="AL7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM7" t="s">
         <v>49</v>
@@ -2287,10 +2456,10 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45000</v>
+        <v>44998</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -2299,13 +2468,13 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -2314,28 +2483,28 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8">
+        <v>70000125</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>11200</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8">
+        <v>575825</v>
+      </c>
+      <c r="Q8" t="s">
         <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8">
-        <v>70000</v>
-      </c>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8">
-        <v>576607</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>103</v>
       </c>
       <c r="R8" t="s">
         <v>43</v>
@@ -2350,28 +2519,28 @@
         <v>47</v>
       </c>
       <c r="V8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
         <v>104</v>
       </c>
-      <c r="W8" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="Z8" t="s">
         <v>52</v>
       </c>
       <c r="AA8">
-        <v>7601000640</v>
-      </c>
-      <c r="AB8">
-        <v>4146</v>
+        <v>7728264227</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>43</v>
       </c>
       <c r="AC8">
-        <v>7801274503</v>
+        <v>7728264227</v>
       </c>
       <c r="AD8" t="s">
         <v>43</v>
@@ -2380,25 +2549,25 @@
         <v>64</v>
       </c>
       <c r="AF8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG8" t="s">
         <v>43</v>
       </c>
       <c r="AH8">
-        <v>576607</v>
+        <v>575825</v>
       </c>
       <c r="AI8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="AL8" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="s">
         <v>49</v>
@@ -2409,10 +2578,10 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45007</v>
+        <v>44999</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -2421,10 +2590,10 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2436,10 +2605,10 @@
         <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="K9">
+        <v>4576</v>
       </c>
       <c r="L9" t="s">
         <v>43</v>
@@ -2448,16 +2617,16 @@
         <v>43</v>
       </c>
       <c r="N9">
-        <v>8640</v>
+        <v>6550</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9">
-        <v>579206</v>
+        <v>576265</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R9" t="s">
         <v>43</v>
@@ -2472,28 +2641,28 @@
         <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="W9" t="s">
         <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="Z9" t="s">
         <v>52</v>
       </c>
       <c r="AA9">
-        <v>7734191827</v>
+        <v>5008000322</v>
       </c>
       <c r="AB9" t="s">
         <v>43</v>
       </c>
       <c r="AC9">
-        <v>7734191827</v>
+        <v>5008000322</v>
       </c>
       <c r="AD9" t="s">
         <v>43</v>
@@ -2502,25 +2671,25 @@
         <v>64</v>
       </c>
       <c r="AF9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9">
+        <v>576265</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL9" t="s">
         <v>116</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH9">
-        <v>579206</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>67</v>
       </c>
       <c r="AM9" t="s">
         <v>49</v>
@@ -2529,378 +2698,378 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10">
+        <v>70000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10">
+        <v>576607</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" t="s">
+        <v>123</v>
+      </c>
+      <c r="W10" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10">
+        <v>7601000640</v>
+      </c>
+      <c r="AB10">
+        <v>4146</v>
+      </c>
+      <c r="AC10">
+        <v>7801274503</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10">
+        <v>576607</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11">
+        <v>8640</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>579206</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>132</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" t="s">
+        <v>133</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11">
+        <v>7734191827</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11">
+        <v>7734191827</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11">
+        <v>579206</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45008</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12">
         <v>3940</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12">
         <v>20000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12">
         <v>579515</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="3" t="s">
+      <c r="Q12" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U12" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="3" t="s">
+      <c r="V12" t="s">
+        <v>141</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z12" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA12">
         <v>7602112755</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AB12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12">
         <v>7602112755</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AD12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" t="s">
         <v>64</v>
       </c>
-      <c r="AF10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="3">
+      <c r="AF12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12">
         <v>579515</v>
       </c>
-      <c r="AI10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45008</v>
-      </c>
-      <c r="B11" s="3">
-        <v>962</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2221</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="3">
-        <v>20000</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="3">
-        <v>579515</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>7602112755</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>7602112755</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>579515</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45008</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1062661</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="3">
-        <v>15000</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="3">
-        <v>579515</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>7602112755</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>7602112755</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>579515</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN12" s="3" t="s">
+      <c r="AI12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45009</v>
-      </c>
-      <c r="B13" t="s">
-        <v>136</v>
+        <v>45008</v>
+      </c>
+      <c r="B13">
+        <v>962</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -2909,10 +3078,10 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -2924,10 +3093,10 @@
         <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K13">
-        <v>750267</v>
+        <v>2221</v>
       </c>
       <c r="L13" t="s">
         <v>43</v>
@@ -2936,16 +3105,16 @@
         <v>43</v>
       </c>
       <c r="N13">
-        <v>11200</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13">
-        <v>579824</v>
+        <v>579515</v>
       </c>
       <c r="Q13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R13" t="s">
         <v>43</v>
@@ -2960,28 +3129,28 @@
         <v>47</v>
       </c>
       <c r="V13" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="W13" t="s">
         <v>49</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="Z13" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="AA13">
-        <v>7714288059</v>
+        <v>7602112755</v>
       </c>
       <c r="AB13" t="s">
         <v>43</v>
       </c>
       <c r="AC13">
-        <v>7714288059</v>
+        <v>7602112755</v>
       </c>
       <c r="AD13" t="s">
         <v>43</v>
@@ -2990,25 +3159,25 @@
         <v>64</v>
       </c>
       <c r="AF13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13">
+        <v>579515</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK13" t="s">
         <v>143</v>
       </c>
-      <c r="AG13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH13">
-        <v>579824</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>51</v>
-      </c>
       <c r="AL13" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="AM13" t="s">
         <v>49</v>
@@ -3019,10 +3188,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45012</v>
+        <v>45008</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3031,10 +3200,10 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -3046,10 +3215,10 @@
         <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K14">
-        <v>300305</v>
+        <v>1062661</v>
       </c>
       <c r="L14" t="s">
         <v>43</v>
@@ -3058,16 +3227,16 @@
         <v>43</v>
       </c>
       <c r="N14">
-        <v>11200</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14">
-        <v>580140</v>
+        <v>579515</v>
       </c>
       <c r="Q14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="R14" t="s">
         <v>43</v>
@@ -3082,28 +3251,28 @@
         <v>47</v>
       </c>
       <c r="V14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="W14" t="s">
         <v>49</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="AA14">
-        <v>7733691513</v>
+        <v>7602112755</v>
       </c>
       <c r="AB14" t="s">
         <v>43</v>
       </c>
       <c r="AC14">
-        <v>7733691513</v>
+        <v>7602112755</v>
       </c>
       <c r="AD14" t="s">
         <v>43</v>
@@ -3112,25 +3281,25 @@
         <v>64</v>
       </c>
       <c r="AF14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AG14" t="s">
         <v>43</v>
       </c>
       <c r="AH14">
-        <v>580140</v>
+        <v>579515</v>
       </c>
       <c r="AI14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AJ14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AK14" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s">
         <v>49</v>
@@ -3141,10 +3310,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45012</v>
+        <v>45009</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -3153,10 +3322,10 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -3168,10 +3337,10 @@
         <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" t="s">
         <v>157</v>
+      </c>
+      <c r="K15">
+        <v>750267</v>
       </c>
       <c r="L15" t="s">
         <v>43</v>
@@ -3186,7 +3355,7 @@
         <v>43</v>
       </c>
       <c r="P15">
-        <v>580164</v>
+        <v>579824</v>
       </c>
       <c r="Q15" t="s">
         <v>158</v>
@@ -3216,16 +3385,16 @@
         <v>51</v>
       </c>
       <c r="Z15" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="AA15">
-        <v>6451114900</v>
+        <v>7714288059</v>
       </c>
       <c r="AB15" t="s">
         <v>43</v>
       </c>
       <c r="AC15">
-        <v>6453010343</v>
+        <v>7714288059</v>
       </c>
       <c r="AD15" t="s">
         <v>43</v>
@@ -3234,16 +3403,16 @@
         <v>64</v>
       </c>
       <c r="AF15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s">
         <v>43</v>
       </c>
       <c r="AH15">
-        <v>580164</v>
+        <v>579824</v>
       </c>
       <c r="AI15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ15" t="s">
         <v>160</v>
@@ -3263,10 +3432,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45014</v>
+        <v>45012</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -3275,10 +3444,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -3290,10 +3459,10 @@
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K16">
-        <v>7000327</v>
+        <v>300305</v>
       </c>
       <c r="L16" t="s">
         <v>43</v>
@@ -3308,10 +3477,10 @@
         <v>43</v>
       </c>
       <c r="P16">
-        <v>581423</v>
+        <v>580140</v>
       </c>
       <c r="Q16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R16" t="s">
         <v>43</v>
@@ -3320,10 +3489,10 @@
         <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="V16" t="s">
         <v>167</v>
@@ -3332,22 +3501,22 @@
         <v>49</v>
       </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="Z16" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AA16">
-        <v>7726383028</v>
+        <v>7733691513</v>
       </c>
       <c r="AB16" t="s">
         <v>43</v>
       </c>
       <c r="AC16">
-        <v>7726383028</v>
+        <v>7733691513</v>
       </c>
       <c r="AD16" t="s">
         <v>43</v>
@@ -3356,25 +3525,25 @@
         <v>64</v>
       </c>
       <c r="AF16" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s">
         <v>43</v>
       </c>
       <c r="AH16">
-        <v>581423</v>
+        <v>580140</v>
       </c>
       <c r="AI16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AJ16" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="s">
         <v>49</v>
@@ -3385,7 +3554,7 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45015</v>
+        <v>45012</v>
       </c>
       <c r="B17" t="s">
         <v>171</v>
@@ -3400,7 +3569,7 @@
         <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -3412,10 +3581,10 @@
         <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17">
-        <v>107230</v>
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
       </c>
       <c r="L17" t="s">
         <v>43</v>
@@ -3424,16 +3593,16 @@
         <v>43</v>
       </c>
       <c r="N17">
-        <v>22400</v>
+        <v>11200</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17">
-        <v>581514</v>
+        <v>580164</v>
       </c>
       <c r="Q17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R17" t="s">
         <v>43</v>
@@ -3448,28 +3617,28 @@
         <v>47</v>
       </c>
       <c r="V17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W17" t="s">
         <v>49</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
         <v>51</v>
       </c>
       <c r="Z17" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="AA17">
-        <v>3908036487</v>
+        <v>6451114900</v>
       </c>
       <c r="AB17" t="s">
         <v>43</v>
       </c>
       <c r="AC17">
-        <v>3908036487</v>
+        <v>6453010343</v>
       </c>
       <c r="AD17" t="s">
         <v>43</v>
@@ -3478,19 +3647,19 @@
         <v>64</v>
       </c>
       <c r="AF17" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s">
         <v>43</v>
       </c>
       <c r="AH17">
-        <v>581514</v>
+        <v>580164</v>
       </c>
       <c r="AI17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK17" t="s">
         <v>51</v>
@@ -3507,10 +3676,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45028</v>
+        <v>45014</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -3519,10 +3688,10 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -3534,10 +3703,10 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" t="s">
-        <v>181</v>
+        <v>165</v>
+      </c>
+      <c r="K18">
+        <v>7000327</v>
       </c>
       <c r="L18" t="s">
         <v>43</v>
@@ -3546,13 +3715,13 @@
         <v>43</v>
       </c>
       <c r="N18">
-        <v>150000</v>
+        <v>11200</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18">
-        <v>577528</v>
+        <v>581423</v>
       </c>
       <c r="Q18" t="s">
         <v>182</v>
@@ -3564,34 +3733,34 @@
         <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="U18" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="V18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z18" t="s">
         <v>52</v>
       </c>
       <c r="AA18">
-        <v>5405101302</v>
+        <v>7726383028</v>
       </c>
       <c r="AB18" t="s">
         <v>43</v>
       </c>
       <c r="AC18">
-        <v>5405101302</v>
+        <v>7726383028</v>
       </c>
       <c r="AD18" t="s">
         <v>43</v>
@@ -3600,22 +3769,22 @@
         <v>64</v>
       </c>
       <c r="AF18" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="AG18" t="s">
         <v>43</v>
       </c>
       <c r="AH18">
-        <v>577528</v>
+        <v>581423</v>
       </c>
       <c r="AI18" t="s">
         <v>187</v>
       </c>
       <c r="AJ18" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s">
         <v>188</v>
@@ -3624,6 +3793,1226 @@
         <v>49</v>
       </c>
       <c r="AN18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19">
+        <v>808482</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>11200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19">
+        <v>581436</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>192</v>
+      </c>
+      <c r="R19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" t="s">
+        <v>193</v>
+      </c>
+      <c r="W19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19">
+        <v>7706465956</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19">
+        <v>7706465956</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19">
+        <v>581436</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20">
+        <v>800953</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>11200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20">
+        <v>581458</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" t="s">
+        <v>199</v>
+      </c>
+      <c r="W20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA20">
+        <v>4026005699</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20">
+        <v>4026005699</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20">
+        <v>581458</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21">
+        <v>107230</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>22400</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21">
+        <v>581514</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>205</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" t="s">
+        <v>206</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21">
+        <v>3908036487</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21">
+        <v>3908036487</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21">
+        <v>581514</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22">
+        <v>70000123</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>11200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22">
+        <v>582326</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>209</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+      <c r="U22" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" t="s">
+        <v>210</v>
+      </c>
+      <c r="W22" t="s">
+        <v>49</v>
+      </c>
+      <c r="X22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA22">
+        <v>7728264227</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22">
+        <v>7728264227</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22">
+        <v>582326</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23">
+        <v>70000124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>11200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23">
+        <v>582326</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" t="s">
+        <v>213</v>
+      </c>
+      <c r="W23" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA23">
+        <v>7728264227</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23">
+        <v>7728264227</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23">
+        <v>582326</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24">
+        <v>750566</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>10864</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>583746</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>216</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" t="s">
+        <v>217</v>
+      </c>
+      <c r="W24" t="s">
+        <v>49</v>
+      </c>
+      <c r="X24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA24">
+        <v>7719021450</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24">
+        <v>7719021450</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24">
+        <v>583746</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25">
+        <v>820558</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <v>11200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25">
+        <v>584365</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>224</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>183</v>
+      </c>
+      <c r="U25" t="s">
+        <v>184</v>
+      </c>
+      <c r="V25" t="s">
+        <v>225</v>
+      </c>
+      <c r="W25" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA25">
+        <v>2443000518</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25">
+        <v>2464019742</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25">
+        <v>584365</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>11200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26">
+        <v>584366</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>230</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>183</v>
+      </c>
+      <c r="U26" t="s">
+        <v>184</v>
+      </c>
+      <c r="V26" t="s">
+        <v>231</v>
+      </c>
+      <c r="W26" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA26">
+        <v>2465214545</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26">
+        <v>2464019742</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH26">
+        <v>584366</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27">
+        <v>3050</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27">
+        <v>11200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27">
+        <v>585711</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V27" t="s">
+        <v>236</v>
+      </c>
+      <c r="W27" t="s">
+        <v>49</v>
+      </c>
+      <c r="X27" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA27">
+        <v>4025075206</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC27">
+        <v>4027005028</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH27">
+        <v>585711</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28">
+        <v>150000</v>
+      </c>
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28">
+        <v>577528</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>243</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28" t="s">
+        <v>244</v>
+      </c>
+      <c r="W28" t="s">
+        <v>49</v>
+      </c>
+      <c r="X28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28">
+        <v>5405101302</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28">
+        <v>5405101302</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28">
+        <v>577528</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN28" t="s">
         <v>56</v>
       </c>
     </row>
